--- a/finetuning/it_datasets/qa_dataset/qa_it_metlaoui_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_metlaoui_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,50 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a great Cafe, check out Caffe Del Sogno located at Rue metlaoui, Al-Mitlawi 2130. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, call them at 76 241 820.</t>
+          <t>Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Metlaoui can you find the highly recommended Caffe Del Sogno, a popular destination for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Gare Du Metlaoui (train station)
+Mid-Morning: Trying local cuisine at Pizzeria Oggi Metlaoui
+Midday: Visiting Station Des Louages Metlaoui (taxi station)
+Afternoon: Enjoying a scenic walk at Caffe Del Sogno (cafe)
+Evening: Taking a guided tour of Station service Agil METLAOUI (gas station)
+Night: Relaxing with a massage at a local spa</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Pizzeria Oggi Metlaoui is a pizzeria located in Metlaoui, Tunisia. It is rated 5.0 based on 2 reviews. The pizzeria is located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130.
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -766,14 +809,50 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for something fun to do, check out Pizzeria Oggi Metlaoui. 
-This top-rated Pizzeria is a perfect spot for Pizzeria lovers. 
-With a rating of 5.0, it's a must-visit spot. It's located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130. To get there, use these GPS coordinates: 34.324025, 8.4049359. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Oggi+Metlaoui/data=!4m7!3m6!1s0x12f87d9f7bade1e3:0xbb966d466fac5337!8m2!3d34.3164005!4d8.4020102!16s%2Fg%2F11rcxgxz9m!19sChIJ4-Gte599-BIRN1Osb0Ztlrs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Pizzeria Oggi Metlaoui is a highly-rated pizzeria located in Metlaoui, Tunisia. This establishment specializes in authentic Italian cuisine, delighting customers with its delectable pizzas. Situated at (34.324025, 8.4049359), Pizzeria Oggi Metlaoui is a prime destination for food enthusiasts in the area.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria, with a 5.0 rating, located in Metlaoui?</t>
+          <t>Day Plan:
+Morning: Explore the Gare Du Metlaoui, a historic train station with 24-hour service.
+Mid-Morning: Visit nearby Station Des Louages Metlaoui for a convenient way to get around the area.
+Midday: Try local cuisine at Valhala-metlaoui pizza and fast food, a popular pizzeria with a 4.0 rating.
+Afternoon: Relax with a scenic stroll through Bardola cafe, a charming cafe with a beautiful outdoor area.
+Evening: Participate in a fascinating guided tour of the Station service Agil METLAOUI, a gas station offering various services.
+Night: Enjoy a delightful dinner at Bardola cafe, savoring its delicious food and excellent service.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)
+Valhala-metlaoui pizza and fast food is a Pizzeria located in Al-Mitlawi, Metlaoui. It offers pizzas and fast food options, and is rated 4.0 based on 2 reviews.
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -875,12 +954,50 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a great Pizzeria, check out Valhala-metlaoui pizza and fast food located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi. This top-rated destination is perfect for Pizzeria lovers and has a rating of 4.0. For more details, visit their website or call them at 22 029 674.</t>
+          <t>Valhala-metlaoui pizza and fast food is a Pizzeria located in Al-Mitlawi, Metlaoui. It offers pizzas and fast food options, and is rated 4.0 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>If you're seeking an exceptional Pizzeria experience in the heart of Metlaoui, where can you go to find a highly rated destination with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Station Des Louages Metlaoui, the central transportation hub in the heart of Metlaoui.
+Mid-Morning: Visit the Gare Du Metlaoui, the city's train station, and learn about its 24-hour services and history.
+Midday: Indulge in local cuisine at Valhala-metlaoui pizza and fast food, a pizzeria offering a variety of delicious pizzas and other fast food options.
+Afternoon: Take a guided tour of the Bardola cafe, a charming cafe with a 5-star rating and warm ambiance, soaking up the local culture.
+Evening: Experience the lively atmosphere at Station service Agil METLAOUI, a gas station that offers a glimpse into the local way of life.
+Night: Unwind and relax with a soothing spa treatment at a local hotel or spa, allowing yourself to rejuvenate after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)
+Valhala-metlaoui pizza and fast food is a pizzeria located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi, metlaoui. The restaurant offers a variety of pizzas as well as other fast food options. It has a rating of 4 out of 5 stars from two reviews. The coordinates of the restaurant are (34.32081, 8.40157).
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -978,12 +1095,50 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated pizzeria, check out Luciana Metlaoui at 8C75+X88, Al-Mitlawi. This highly-rated destination with a 5.0 rating offers a range of pizza options to choose from. For more details, visit their website at https://www.google.com/maps/place/Luciana+Metlaoui/data=!4m7!3m6!1s0x12f87d0d3884b617:0xb07ba0e23ca7558c!8m2!3d34.3150158!4d8.4075516!16s%2Fg%2F11smcsy2s1!19sChIJF7aEOA19-BIRjFWnPOKge7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number].</t>
+          <t>Luciana Metlaoui is a pizzeria located in Al-Mitlawi, Tunisia at (34.32081, 8.40157). It has a 5.0-star rating and one review. The pizzeria's featured image showcases a photo of its establishment.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Metlaoui can you find a top-rated pizzeria offering a wide selection of pizzas?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Station Des Louages Metlaoui, a transportation hub offering local transportation services.
+Mid-Morning: Try local cuisine at Bardola Cafe, a cozy establishment with a 5-star review, located nearby.
+Midday: Visit the Gare Du Metlaoui, a train station with 24-hour service and a rating of 3.8 out of 5 stars.
+Afternoon: Engage in outdoor activities at the scenic Lake Sidi Abdelghani Park, offering stunning views and opportunities for relaxation.
+Evening: Immerse in the cultural heritage at the Museum of Metlaoui, showcasing the region's rich history and traditions.
+Night: Relax and enjoy the ambiance at a local hotel, offering comfortable accommodations and amenities.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)
+Luciana Metlaoui is a pizzeria located in Al-Mitlawi, Tunisia at (34.32081, 8.40157). It has a 5.0-star rating and one review. The pizzeria's featured image showcases a photo of its establishment.
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1232,50 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated Cafe, check out Bardola cafe located at 8CF4+FH3 Bardola cafe, Rue metlaoui, Denden 2011. Boasting a rating of 5.0, this popular spot offers a range of categories to choose from. To get there, use these GPS coordinates: 36.807046798899, 10.106123271448. For more details, visit their website at https://www.google.com/maps/place/Bardola+cafe/data=!4m7!3m6!1s0x12f87c0e1610f721:0xc65a43c568e9060e!8m2!3d34.323648!4d8.4064204!16s%2Fg%2F11c2pp9f62!19sChIJIfcQFg58-BIRDgbpaMVDWsY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Metlaoui with a 5.0 rating and a notable range of categories to select from, offering a convenient experience with a website and GPS coordinates provided for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Station Des Louages Metlaoui, a transportation hub that connects visitors to local areas.
+Mid-Morning: Visit the Gare Du Metlaoui, a 24-hour train station, and admire its historic exterior.
+Midday: Try local cuisine at Pizzeria Oggi Metlaoui, rated 5.0 based on reviews, and savor their authentic pizzas.
+Afternoon: Engage in outdoor activities at Station service Agil METLAOUI, a gas station that offers a variety of services and is conveniently located near the main road.
+Evening: Experience cultural immersion at Caffe Del Sogno, a highly-rated cafe offering coffee, tea, and pastries, and immerse yourself in the local atmosphere.
+Night: Relax with a cup of tea at Caffe Del Sogno and enjoy scenic views as you unwind from the day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Pizzeria Oggi Metlaoui is a pizzeria located in Metlaoui, Tunisia. It is rated 5.0 based on 2 reviews. The pizzeria is located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130.
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1369,50 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-notch Pizzeria, visit Pizzeria Oggi Metlaoui located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130. With a remarkable rating of 5.0 based on 2 reviews, this Pizzeria is a must-try. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Oggi+Metlaoui/data=!4m7!3m6!1s0x12f87d9f7bade1e3:0xbb966d466fac5337!8m2!3d34.3164005!4d8.4020102!16s%2Fg%2F11rcxgxz9m!19sChIJ4-Gte599-BIRN1Osb0Ztlrs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Pizzeria Oggi Metlaoui is a pizzeria located in Metlaoui, Tunisia. It is rated 5.0 based on 2 reviews. The pizzeria is located at 8C82+HR6 Pizzeria Oggi Metlaoui, Rue de president, Al-Mitlawi 2130.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria with a 5.0 rating based on reviews in Metlaoui?</t>
+          <t>Day Plan:
+Morning: Explore Luciana Metlaoui, a pizzeria with a 5.0-star rating and a featured image showcasing its establishment.
+Mid-Morning: Visit the Station Des Louages Metlaoui, a taxi station with a 4.5-star rating and convenient access to the area.
+Midday: Have lunch at Bardola cafe, which has only one review but with 5 stars.
+Afternoon: Visit the Gare Du Metlaoui, a train station with a 3.8-star rating and 24-hour service.
+Evening: Enjoy dinner at Station service Agil METLAOUI, a gas station open 24 hours a day.
+Night: Relax with a drink at Luciana Metlaoui or take a guided tour of the cultural sites in Al-Mitlawi.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bardola cafe is a cafe located in Rue metlaoui, Denden 2011 Tunisia, it has only one review but with 5 stars ! Sadly we do not have further information about Bardola cafe (hours, phone number, website, featured image)
+Luciana Metlaoui is a pizzeria located in Al-Mitlawi, Tunisia at (34.32081, 8.40157). It has a 5.0-star rating and one review. The pizzeria's featured image showcases a photo of its establishment.
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1283,14 +1514,50 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for something fun to do, check out Valhala-metlaoui pizza and fast food located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, visit them at https://www.google.com/maps/place/Valhala-metlaoui+pizza+and+fast+food/data=!4m7!3m6!1s0x12f87d82cc5f79af:0x417ee1fd3f04ec06!8m2!3d34.3159091!4d8.3994891!16s%2Fg%2F11nx_9gspr!19sChIJr3lfzIJ9-BIRBuwEP_3hfkE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 029 674.</t>
+          <t>Valhala-metlaoui pizza and fast food is a pizzeria located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi, metlaoui. The restaurant offers a variety of pizzas as well as other fast food options. It has a rating of 4 out of 5 stars from two reviews. The coordinates of the restaurant are (34.32081, 8.40157).</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria offering a wide selection of Pizzeria options with GPS coordinates of 34.32081, 8.40157 in Metlaoui?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare Du Metlaoui, delve into its architectural beauty, and admire the featured image showcasing its grandeur.
+Mid-Morning: Indulge in the flavors of Tunisia at Pizzeria Oggi Metlaoui, a culinary gem specializing in authentic Italian cuisine. Delight in the aroma of freshly baked pizzas and savor their deliciousness.
+Midday: Immerse yourself in the local culture at Caffe Del Sogno, a cherished cafe where you can sip on aromatic coffee, relish pastries, and engage with the warm locals.
+Afternoon: Take a revitalizing stroll through the vibrant streets of Al-Mitlawi, immerse yourself in the local atmosphere, and capture the essence of this enchanting town's daily life.
+Evening: Embark on a guided tour of the intriguing Station Des Louages Metlaoui, learn about its significance as a local transport hub, and discover its fascinating history.
+Night: Unwind and recharge at Station service Agil METLAOUI, a 24-hour gas station that offers a sanctuary for weary travelers and locals. Replenish with refreshments and revitalize for the adventures that lie ahead.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Pizzeria Oggi Metlaoui is a highly-rated pizzeria located in Metlaoui, Tunisia. This establishment specializes in authentic Italian cuisine, delighting customers with its delectable pizzas. Situated at (34.324025, 8.4049359), Pizzeria Oggi Metlaoui is a prime destination for food enthusiasts in the area.
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1388,14 +1655,50 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a Pizzeria, check out Luciana Metlaoui located at 8C75+X88 Luciana Metlaoui, Al-Mitlawi. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Luciana+Metlaoui/data=!4m7!3m6!1s0x12f87d0d3884b617:0xb07ba0e23ca7558c!8m2!3d34.3150158!4d8.4075516!16s%2Fg%2F11smcsy2s1!19sChIJF7aEOA19-BIRjFWnPOKge7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Luciana Metlaoui is a Pizzeria located in metlaoui, Tunisia. It is rated 5.0 out of 5 stars based on 1 review. The Pizzeria is owned by Luciana Metlaoui (proprietaire). Its coordinates are (34.32081, 8.40157).</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Metlaoui can you find a top-rated Pizzeria with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare Du Metlaoui train station.
+Mid-Morning: Try local cuisine at the highly-rated Caffe Del Sogno cafe.
+Midday: Visit the cultural and historical landmarks of Al-Mitlawi.
+Afternoon: Enjoy scenic views of the area from a nearby park or scenic spot.
+Evening: Experience a traditional dinner at Valhala-metlaoui pizza and fast food restaurant.
+Night: Relax with a relaxing activity at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Valhala-metlaoui pizza and fast food is a Pizzeria located in Al-Mitlawi, Metlaoui. It offers pizzas and fast food options, and is rated 4.0 based on 2 reviews.
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1493,13 +1796,50 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a reliable taxi station, check out Station Des Louages Metlaoui at 
-8C76+V59 Station Des Louages Metlaoui, Al-Mitlawi. This top-rated destination is perfect for taxi lovers and offers a range of services to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, visit their website at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi station with a wide range of services in Metlaoui?</t>
+          <t>Day Plan:
+Morning: Exploring Station Des Louages Metlaoui, a taxi station with high ratings.
+Mid-Morning: Trying local cuisine at Valhala-metlaoui pizza and fast food, a pizzeria with a good rating and a variety of options.
+Midday: Visiting Gare Du Metlaoui, a train station with 24-hour service and good reviews.
+Afternoon: Relaxing with a coffee or tea at Caffe Del Sogno, a highly-rated cafe with convenient location.
+Evening: Shopping at Station service Agil METLAOUI, a gas station with 24-hour operation and a variety of services.
+Night: Enjoying scenic views at coordinates (34.3146502, 8.4104727), a scenic spot with beautiful surroundings.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Valhala-metlaoui pizza and fast food is a pizzeria located at 898X+9Q9 Valhala-metlaoui pizza and fast food, P3, Al-Mitlawi, metlaoui. The restaurant offers a variety of pizzas as well as other fast food options. It has a rating of 4 out of 5 stars from two reviews. The coordinates of the restaurant are (34.32081, 8.40157).
+Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1945,50 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a mode of transport, check out Gare Du Metlaoui located at 8C88+4M3 Gare Du Metlaoui, Al-Mitlawi. This top-rated destination is perfect for Compagnie ferroviaire metropolitaine lovers and is open 24 hours a day. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 34.30807, 8.42028. For more details, visit their website at https://www.google.com/maps/place/Gare+Du+Metlaoui/data=!4m7!3m6!1s0x12f87c18ee0341f1:0xf00656d2b01a0f8!8m2!3d34.3152694!4d8.4166713!16s%2Fg%2F11fxy8tpkq!19sChIJ8UED7hh8-BIR-KABK21lAA8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 241 059.</t>
+          <t>The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated train station in Metlaoui that is perfect for Compagnie ferroviaire metropolitaine enthusiasts and operates 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Caffe Del Sogno for a local coffee experience.
+Mid-Morning: Visit the Gare Du Metlaoui train station, a key transportation hub in the city.
+Midday: Try local cuisine at Valhala-metlaoui, a highly-rated pizza and fast food spot.
+Afternoon: Explore the bustling Station Des Louages Metlaoui, connecting with the local transportation system.
+Evening: Take a guided tour of the Station service Agil METLAOUI gas station, offering a unique glimpse into a vital part of the community.
+Night: Relax and enjoy the scenic views at a park or beach, soaking in the tranquil atmosphere of the town.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Valhala-metlaoui pizza and fast food is a Pizzeria located in Al-Mitlawi, Metlaoui. It offers pizzas and fast food options, and is rated 4.0 based on 2 reviews.
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1708,12 +2086,50 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a reliable taxi station, Station Des Louages Metlaoui located at 8C76+V59 Station Des Louages Metlaoui, Al-Mitlawi is a top-rated choice. With a rating of 4.5, it's a must-visit spot for those seeking convenient transportation services. For more details, visit their website or call them at the provided contact information.</t>
+          <t>Station Des Louages Metlaoui is a taxi station located in Al-Mitlawi, Tunisia. The station is rated 4.5 stars on Google and offers a convenient way to get around the area. It is located at coordinates (34.32081, 8.40157) and can be found on Google Maps at https://www.google.com/maps/place/Station+Des+Louages+Metlaoui/data=!4m7!3m6!1s0x12f87c1b9c197203:0x5de1d0b1650636f6!8m2!3d34.3146502!4d8.4104727!16s%2Fg%2F11c1r76jm6!19sChIJA3IZnBt8-BIR9jYGZbHQ4V0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi station with a location and contact information provided in Metlaoui?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Station Des Louages Metlaoui, a transportation hub offering a range of services.
+Mid-Morning: Visit Luciana Metlaoui, a highly-rated pizzeria, to try local cuisine and experience the warm hospitality of its owner.
+Midday: Take a relaxing break at Station service Agil METLAOUI, a gas station conveniently located near the main road.
+Afternoon: Visit Gare Du Metlaoui, a quaint train station offering 24-hour service and showcasing the area's transportation history.
+Evening: Engage in outdoor activities at the scenic nearby park or outdoor area, enjoying the fresh air and serene surroundings.
+Night: Immerse yourself in the local culture at Caffe Del Sogno, a highly-rated cafe offering a variety of beverages and pastries, and enjoy the friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Luciana Metlaoui is a Pizzeria located in metlaoui, Tunisia. It is rated 5.0 out of 5 stars based on 1 review. The Pizzeria is owned by Luciana Metlaoui (proprietaire). Its coordinates are (34.32081, 8.40157).
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1819,12 +2235,50 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in metlaoui and looking for a top-rated Station-service, check out Station service Agil METLAOUI located at 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. This must-visit spot has a 5.0 rating and is open 24 hours a day. To get there, use these GPS coordinates: 34.32081, 8.40157. For more details, call them at 76 243 108.</t>
+          <t>Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>If you're in Metlaoui and craving a highly-rated Station-service with extended hours, what must-visit spot boasts a 5.0 rating and is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Try local cuisine at Luciana Metlaoui.
+Mid-Morning: Explore the Gare Du Metlaoui for its historic significance.
+Midday: Visit the Station Des Louages Metlaoui to connect with local transportation.
+Afternoon: Shop for souvenirs at a market.
+Evening: Enjoy scenic views at Station service Agil METLAOUI as the sun sets.
+Night: Relax with a cozy drink at Caffe Del Sogno while enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Caffe Del Sogno is a highly-rated cafe located on Rue metlaoui in Al-Mitlawi, Tunisia. It offers a variety of services, including coffee, tea, and pastries. The cafe is open from 06:00 to 22:00 daily and is closed on . Caffe Del Sogno is conveniently located near public transportation, making it easy to get to and from.
+Luciana Metlaoui is a Pizzeria located in metlaoui, Tunisia. It is rated 5.0 out of 5 stars based on 1 review. The Pizzeria is owned by Luciana Metlaoui (proprietaire). Its coordinates are (34.32081, 8.40157).
+Located in the heart of Metlaoui, the Station Des Louages Metlaoui is a bustling transportation hub. It is the perfect place to connect with local transportation, offering a range of services to meet your needs. Situated at the coordinates (34.32081, 8.40157), the station is well-connected with its surroundings, making it easy to get around the city. With a rating of 4.5, the Station Des Louages Metlaoui is a highly-regarded transportation provider, offering safe, reliable, and efficient services to the community.
+The Gare Du Metlaoui is a train station located in Al-Mitlawi, Tunisia. It offers 24-hour service and is rated 3.8 out of 5 stars based on 10 reviews. The station features a featured image showcasing its exterior and provides contact information, including a phone number and address.
+Station service Agil METLAOUI is a gas station located in 8C82+CM4 Station service Agil METLAOUI, C122, Al-Mitlawi. It's open 24 hours a day and offers various services to its customers. The station is conveniently located near the main road, making it easily accessible for travelers and locals alike. With its convenient location, 24-hour operation, and variety of services, Station service Agil METLAOUI is a valuable asset to the local community.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
